--- a/data608-vis/story1_files/merged_states_funding_population1.xlsx
+++ b/data608-vis/story1_files/merged_states_funding_population1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10904"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/afraser/Documents/src/cuny-datascience/data608-vis/story1_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CE3A456-4A2E-3F48-ACF2-AC9E1724B19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989FCC83-667D-714E-AD2D-B2BBF10BA225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10280" yWindow="1440" windowWidth="28700" windowHeight="24220" xr2:uid="{2C1F9D2A-A998-DC42-B0F5-97FE1B931DCB}"/>
+    <workbookView xWindow="6300" yWindow="880" windowWidth="34320" windowHeight="24220" activeTab="1" xr2:uid="{2C1F9D2A-A998-DC42-B0F5-97FE1B931DCB}"/>
   </bookViews>
   <sheets>
     <sheet name="merged_states_funding_populatio" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="70">
   <si>
     <t>state</t>
   </si>
@@ -47,19 +47,10 @@
     <t>color</t>
   </si>
   <si>
-    <t>alabama</t>
-  </si>
-  <si>
     <t>republican</t>
   </si>
   <si>
     <t>red</t>
-  </si>
-  <si>
-    <t>alaska</t>
-  </si>
-  <si>
-    <t>americansamoa</t>
   </si>
   <si>
     <t>none</t>
@@ -68,172 +59,178 @@
     <t>gray</t>
   </si>
   <si>
-    <t>arizona</t>
-  </si>
-  <si>
     <t>democrat</t>
   </si>
   <si>
     <t>blue</t>
   </si>
   <si>
-    <t>arkansas</t>
-  </si>
-  <si>
-    <t>california</t>
-  </si>
-  <si>
-    <t>colorado</t>
-  </si>
-  <si>
-    <t>connecticut</t>
-  </si>
-  <si>
-    <t>delaware</t>
-  </si>
-  <si>
-    <t>districtofcolumbia</t>
-  </si>
-  <si>
-    <t>florida</t>
-  </si>
-  <si>
-    <t>georgia</t>
-  </si>
-  <si>
-    <t>guam</t>
-  </si>
-  <si>
-    <t>hawaii</t>
-  </si>
-  <si>
-    <t>idaho</t>
-  </si>
-  <si>
-    <t>illinois</t>
-  </si>
-  <si>
-    <t>indiana</t>
-  </si>
-  <si>
-    <t>iowa</t>
-  </si>
-  <si>
-    <t>kansas</t>
-  </si>
-  <si>
-    <t>kentucky</t>
-  </si>
-  <si>
-    <t>louisiana</t>
-  </si>
-  <si>
-    <t>maine</t>
-  </si>
-  <si>
-    <t>maryland</t>
-  </si>
-  <si>
-    <t>massachusetts</t>
-  </si>
-  <si>
-    <t>michigan</t>
-  </si>
-  <si>
-    <t>minnesota</t>
-  </si>
-  <si>
-    <t>mississippi</t>
-  </si>
-  <si>
-    <t>missouri</t>
-  </si>
-  <si>
-    <t>montana</t>
-  </si>
-  <si>
-    <t>nebraska</t>
-  </si>
-  <si>
-    <t>nevada</t>
-  </si>
-  <si>
-    <t>newhampshire</t>
-  </si>
-  <si>
-    <t>newjersey</t>
-  </si>
-  <si>
-    <t>newmexico</t>
-  </si>
-  <si>
-    <t>newyork</t>
-  </si>
-  <si>
-    <t>northcarolina</t>
-  </si>
-  <si>
-    <t>northdakota</t>
-  </si>
-  <si>
-    <t>northernmarianaislands</t>
-  </si>
-  <si>
-    <t>ohio</t>
-  </si>
-  <si>
-    <t>oklahoma</t>
-  </si>
-  <si>
-    <t>oregon</t>
-  </si>
-  <si>
-    <t>pennsylvania</t>
-  </si>
-  <si>
-    <t>puertorico</t>
-  </si>
-  <si>
-    <t>rhodeisland</t>
-  </si>
-  <si>
-    <t>southcarolina</t>
-  </si>
-  <si>
-    <t>southdakota</t>
-  </si>
-  <si>
-    <t>tennessee</t>
-  </si>
-  <si>
-    <t>texas</t>
-  </si>
-  <si>
-    <t>utah</t>
-  </si>
-  <si>
-    <t>vermont</t>
-  </si>
-  <si>
-    <t>virginia</t>
-  </si>
-  <si>
-    <t>washington</t>
-  </si>
-  <si>
-    <t>westvirginia</t>
-  </si>
-  <si>
-    <t>wisconsin</t>
-  </si>
-  <si>
-    <t>wyoming</t>
-  </si>
-  <si>
     <t>sfsd</t>
   </si>
   <si>
     <t>\</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>Alaska</t>
   </si>
 </sst>
 </file>
@@ -964,6 +961,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-6185-6246-9E23-65300EBDB018}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1190,6 +1192,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-6185-6246-9E23-65300EBDB018}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="16"/>
@@ -1953,176 +1960,178 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006F-6185-6246-9E23-65300EBDB018}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>merged_states_funding_populatio!$A$2:$A$57</c:f>
               <c:strCache>
-                <c:ptCount val="55"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>puertorico</c:v>
+                  <c:v>Puerto Rico</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>florida</c:v>
+                  <c:v>Florida</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>northcarolina</c:v>
+                  <c:v>North Carolina</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>southcarolina</c:v>
+                  <c:v>South Carolina</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>maryland</c:v>
+                  <c:v>Maryland</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>georgia</c:v>
+                  <c:v>Georgia</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>texas</c:v>
+                  <c:v>Texas</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>minnesota</c:v>
+                  <c:v>Minnesota</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>arizona</c:v>
+                  <c:v>Arizona</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>california</c:v>
+                  <c:v>California</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>wisconsin</c:v>
+                  <c:v>Wisconsin</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>indiana</c:v>
+                  <c:v>Indiana</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>kansas</c:v>
+                  <c:v>Kansas</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>washington</c:v>
+                  <c:v>Washington</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>massachusetts</c:v>
+                  <c:v>Massachusetts</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>newyork</c:v>
+                  <c:v>New York</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>virginia</c:v>
+                  <c:v>Virginia</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>michigan</c:v>
+                  <c:v>Michigan</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>tennessee</c:v>
+                  <c:v>Tennessee</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>utah</c:v>
+                  <c:v>Utah</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>nevada</c:v>
+                  <c:v>Nevada</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>newhampshire</c:v>
+                  <c:v>New Hampshire</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>oregon</c:v>
+                  <c:v>Oregon</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>colorado</c:v>
+                  <c:v>Colorado</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>newjersey</c:v>
+                  <c:v>New Jersey</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>ohio</c:v>
+                  <c:v>Ohio</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>alabama</c:v>
+                  <c:v>Alabama</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>idaho</c:v>
+                  <c:v>Idaho</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>missouri</c:v>
+                  <c:v>Missouri</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>pennsylvania</c:v>
+                  <c:v>Pennsylvania</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>nebraska</c:v>
+                  <c:v>Nebraska</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>illinois</c:v>
+                  <c:v>Illinois</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>connecticut</c:v>
+                  <c:v>Connecticut</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>hawaii</c:v>
+                  <c:v>Hawaii</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>oklahoma</c:v>
+                  <c:v>Oklahoma</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>iowa</c:v>
+                  <c:v>Iowa</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>mississippi</c:v>
+                  <c:v>Mississippi</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>maine</c:v>
+                  <c:v>Maine</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>guam</c:v>
+                  <c:v>Guam</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>kentucky</c:v>
+                  <c:v>Kentucky</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>arkansas</c:v>
+                  <c:v>Arkansas</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>louisiana</c:v>
+                  <c:v>Louisiana</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>rhodeisland</c:v>
+                  <c:v>Rhode Island</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>westvirginia</c:v>
+                  <c:v>West Virginia</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>newmexico</c:v>
+                  <c:v>New Mexico</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>vermont</c:v>
+                  <c:v>Vermont</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>southdakota</c:v>
+                  <c:v>South Dakota</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>americansamoa</c:v>
+                  <c:v>American Samoa</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>districtofcolumbia</c:v>
+                  <c:v>DC</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>northernmarianaislands</c:v>
+                  <c:v>Northern Mariana Islands</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>northdakota</c:v>
+                  <c:v>North Dakota</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>montana</c:v>
+                  <c:v>Montana</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>wyoming</c:v>
+                  <c:v>Wyoming</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>alaska</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>delaware</c:v>
+                  <c:v>Alaska</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2346,7 +2355,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2414,6 +2423,1731 @@
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="197532000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="3000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Funding Allocations: Infrastructure Investment and Jobs Act </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Percentage difference between Per Capita and Actual disbursements</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19409283244026487"/>
+          <c:y val="1.6773350711707043E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.8856675436788009E-2"/>
+          <c:y val="7.6184008153450014E-2"/>
+          <c:w val="0.92392773032181497"/>
+          <c:h val="0.8491210217064894"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>merged_states_funding_populatio!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>percent_diff</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000019-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="13"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="15"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="18"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000027-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000029-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="21"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002B-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="22"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002D-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000002F-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000031-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="25"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000033-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="26"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000035-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="27"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000037-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="28"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000039-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="29"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003B-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="30"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003D-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="31"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000003F-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="32"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000041-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="33"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000043-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="34"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000045-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="35"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000047-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="36"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000049-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="37"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004B-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="38"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004D-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="39"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000004F-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="40"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000051-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="41"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000053-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="42"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000055-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="43"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000057-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="44"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000059-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="45"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005B-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="46"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005D-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="47"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000005F-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="48"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000061-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="49"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000063-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="50"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000065-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="51"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000067-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="52"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000069-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="53"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006B-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="54"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006D-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="55"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000006F-10E9-CE43-982D-E7276873CCC0}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>merged_states_funding_populatio!$A$2:$A$57</c:f>
+              <c:strCache>
+                <c:ptCount val="54"/>
+                <c:pt idx="0">
+                  <c:v>Puerto Rico</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Florida</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>North Carolina</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>South Carolina</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Maryland</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Georgia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Texas</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Minnesota</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Arizona</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>California</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Wisconsin</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Indiana</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Kansas</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Washington</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Massachusetts</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>New York</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Virginia</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Michigan</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Tennessee</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Utah</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Nevada</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>New Hampshire</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Oregon</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Colorado</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>New Jersey</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Ohio</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Alabama</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Idaho</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Missouri</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Pennsylvania</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Nebraska</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Illinois</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Connecticut</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Hawaii</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Oklahoma</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Iowa</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Mississippi</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Maine</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Guam</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Kentucky</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Arkansas</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Louisiana</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Rhode Island</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>West Virginia</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>New Mexico</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Vermont</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>South Dakota</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>American Samoa</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>DC</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Northern Mariana Islands</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>North Dakota</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Montana</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Wyoming</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Alaska</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>merged_states_funding_populatio!$G$2:$G$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="56"/>
+                <c:pt idx="0">
+                  <c:v>-45.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-36.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-27.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-24.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-23.33</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-20.440000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-18.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-17.41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-17.34</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-17.12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-16.86</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-13.04</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-10.47</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-10.14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-9.76</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-9.43</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-9.3800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-9.08</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-8.8800000000000008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-7.57</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-6.59</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-5.89</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-4.45</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-3.66</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.72</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.07</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.19</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.64</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.68</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15.33</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.47</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>22.29</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25.55</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>31.34</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37.32</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.32</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44.71</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>51.23</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>60.19</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>76.150000000000006</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>98.31</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>115.82</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>130.97999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>148.18</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>174.17</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>184.34</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>193.59</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>302.99</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>411.27</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>591.14</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>785.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000070-10E9-CE43-982D-E7276873CCC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="167"/>
+        <c:overlap val="-32"/>
+        <c:axId val="197532000"/>
+        <c:axId val="197410448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="197532000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="197410448"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="1000"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="197410448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -2511,7 +4245,552 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3085,15 +5364,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>610886</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>116415</xdr:rowOff>
+      <xdr:rowOff>116413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>55218</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:colOff>55219</xdr:colOff>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3507,6 +5786,1349 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>Democratic</a:t>
           </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>436219</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>92896</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D49384-6E6C-BE45-88D2-49EBC2277DBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.42111</cdr:x>
+      <cdr:y>0.95018</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.58267</cdr:x>
+      <cdr:y>0.96905</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 16">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DDF4882-11AF-E826-567E-6E4D083A8759}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="6427964" y="20415414"/>
+          <a:ext cx="2466060" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Percent of Per</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Capita </a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.72238</cdr:x>
+      <cdr:y>0.76645</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.73812</cdr:x>
+      <cdr:y>0.77715</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1790A2AA-90EC-A2F2-53C6-B72FE69E1A6F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="11049000" y="16248907"/>
+          <a:ext cx="240741" cy="226807"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.7226</cdr:x>
+      <cdr:y>0.78318</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.73875</cdr:x>
+      <cdr:y>0.79326</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16FDBD95-C939-4127-7175-038E7AC02845}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="11052397" y="16603556"/>
+          <a:ext cx="246874" cy="213724"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.72316</cdr:x>
+      <cdr:y>0.79811</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.7389</cdr:x>
+      <cdr:y>0.80873</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1B8DD9F-3E06-A168-13B1-44416F2881E1}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="11090455" y="16995484"/>
+          <a:ext cx="241384" cy="226226"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="85000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.73591</cdr:x>
+      <cdr:y>0.76303</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.88815</cdr:x>
+      <cdr:y>0.78138</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="9" name="TextBox 16">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0FA06E7-2F16-B2C5-C70B-F1197364739A}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="11255929" y="16176529"/>
+          <a:ext cx="2328564" cy="388953"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Allocation (Republican)</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.73562</cdr:x>
+      <cdr:y>0.77837</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.89023</cdr:x>
+      <cdr:y>0.79672</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="10" name="TextBox 17">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDC53287-F52C-AA5C-E83A-F09C9443DC9D}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="11251458" y="16501770"/>
+          <a:ext cx="2364737" cy="388953"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Allocation (Democratic)</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.73623</cdr:x>
+      <cdr:y>0.79427</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.82842</cdr:x>
+      <cdr:y>0.81206</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="11" name="TextBox 18">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{469E7154-9EAA-86A7-4B33-581523108174}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="11290832" y="16913737"/>
+          <a:ext cx="1413888" cy="378738"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Non</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> partison</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.34362</cdr:x>
+      <cdr:y>0.97746</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.64986</cdr:x>
+      <cdr:y>0.99487</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="12" name="TextBox 16">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E551A8C4-D470-356E-13D9-C216C2368FA8}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5245129" y="21001675"/>
+          <a:ext cx="4674485" cy="374077"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="0" i="1" baseline="0"/>
+            <a:t>Zero percent indicates  exact per capita allocation</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1800" b="0" i="1"/>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -3831,14 +7453,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7961959-EA14-C542-9CDE-50FFE117C493}">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView topLeftCell="A26" zoomScale="180" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3870,7 +7493,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>0.99370000000000003</v>
@@ -3879,7 +7502,7 @@
         <v>3205691</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>1.83</v>
@@ -3891,12 +7514,12 @@
         <v>-45.6</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>8.1999999999999993</v>
@@ -3905,7 +7528,7 @@
         <v>22610726</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>12.88</v>
@@ -3917,12 +7540,12 @@
         <v>-36.35</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>4.5</v>
@@ -3931,7 +7554,7 @@
         <v>10835491</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>6.17</v>
@@ -3943,15 +7566,15 @@
         <v>-27.11</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q4" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="B5">
         <v>2.2999999999999998</v>
@@ -3960,7 +7583,7 @@
         <v>5373555</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>3.06</v>
@@ -3972,12 +7595,12 @@
         <v>-24.88</v>
       </c>
       <c r="H5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <v>2.7</v>
@@ -3986,7 +7609,7 @@
         <v>6180253</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>3.52</v>
@@ -3998,12 +7621,12 @@
         <v>-23.33</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -4012,7 +7635,7 @@
         <v>11029227</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>6.28</v>
@@ -4024,12 +7647,12 @@
         <v>-20.440000000000001</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>14.2</v>
@@ -4038,7 +7661,7 @@
         <v>30503301</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>17.38</v>
@@ -4050,12 +7673,12 @@
         <v>-18.3</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B9">
         <v>2.7</v>
@@ -4064,7 +7687,7 @@
         <v>5737915</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>3.27</v>
@@ -4076,12 +7699,12 @@
         <v>-17.41</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B10">
         <v>3.5</v>
@@ -4090,7 +7713,7 @@
         <v>7431344</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>4.2300000000000004</v>
@@ -4102,12 +7725,12 @@
         <v>-17.34</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B11">
         <v>18.399999999999999</v>
@@ -4116,7 +7739,7 @@
         <v>38965193</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>22.2</v>
@@ -4128,12 +7751,12 @@
         <v>-17.12</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="B12">
         <v>2.8</v>
@@ -4142,7 +7765,7 @@
         <v>5910955</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E12">
         <v>3.37</v>
@@ -4154,12 +7777,12 @@
         <v>-16.86</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B13">
         <v>3.4</v>
@@ -4168,7 +7791,7 @@
         <v>6862199</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>3.91</v>
@@ -4180,12 +7803,12 @@
         <v>-13.04</v>
       </c>
       <c r="H13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>1.5</v>
@@ -4194,7 +7817,7 @@
         <v>2940546</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>1.68</v>
@@ -4206,12 +7829,12 @@
         <v>-10.47</v>
       </c>
       <c r="H14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -4220,7 +7843,7 @@
         <v>7812880</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E15">
         <v>4.45</v>
@@ -4232,12 +7855,12 @@
         <v>-10.14</v>
       </c>
       <c r="H15" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B16">
         <v>3.6</v>
@@ -4246,7 +7869,7 @@
         <v>7001399</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E16">
         <v>3.99</v>
@@ -4258,12 +7881,12 @@
         <v>-9.76</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B17">
         <v>10.1</v>
@@ -4272,7 +7895,7 @@
         <v>19571216</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>11.15</v>
@@ -4284,12 +7907,12 @@
         <v>-9.43</v>
       </c>
       <c r="H17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B18">
         <v>4.5</v>
@@ -4298,7 +7921,7 @@
         <v>8715698</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <v>4.97</v>
@@ -4310,12 +7933,12 @@
         <v>-9.3800000000000008</v>
       </c>
       <c r="H18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B19">
         <v>5.2</v>
@@ -4324,7 +7947,7 @@
         <v>10037261</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E19">
         <v>5.72</v>
@@ -4336,12 +7959,12 @@
         <v>-9.08</v>
       </c>
       <c r="H19" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B20">
         <v>3.7</v>
@@ -4350,7 +7973,7 @@
         <v>7126489</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <v>4.0599999999999996</v>
@@ -4362,12 +7985,12 @@
         <v>-8.8800000000000008</v>
       </c>
       <c r="H20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="B21">
         <v>1.8</v>
@@ -4376,7 +7999,7 @@
         <v>3417734</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21">
         <v>1.95</v>
@@ -4388,12 +8011,12 @@
         <v>-7.57</v>
       </c>
       <c r="H21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B22">
         <v>1.7</v>
@@ -4402,7 +8025,7 @@
         <v>3194176</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E22">
         <v>1.82</v>
@@ -4414,12 +8037,12 @@
         <v>-6.59</v>
       </c>
       <c r="H22" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B23">
         <v>0.75180000000000002</v>
@@ -4428,7 +8051,7 @@
         <v>1402054</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E23">
         <v>0.8</v>
@@ -4440,12 +8063,12 @@
         <v>-5.89</v>
       </c>
       <c r="H23" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B24">
         <v>2.2999999999999998</v>
@@ -4454,7 +8077,7 @@
         <v>4233358</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E24">
         <v>2.41</v>
@@ -4466,12 +8089,12 @@
         <v>-4.6500000000000004</v>
       </c>
       <c r="H24" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B25">
         <v>3.2</v>
@@ -4480,7 +8103,7 @@
         <v>5877610</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E25">
         <v>3.35</v>
@@ -4492,12 +8115,12 @@
         <v>-4.45</v>
       </c>
       <c r="H25" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B26">
         <v>5.0999999999999996</v>
@@ -4506,7 +8129,7 @@
         <v>9290841</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E26">
         <v>5.29</v>
@@ -4518,12 +8141,12 @@
         <v>-3.66</v>
       </c>
       <c r="H26" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B27">
         <v>6.6</v>
@@ -4532,7 +8155,7 @@
         <v>11785935</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27">
         <v>6.72</v>
@@ -4544,12 +8167,12 @@
         <v>-1.72</v>
       </c>
       <c r="H27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -4558,7 +8181,7 @@
         <v>5108468</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>2.91</v>
@@ -4570,12 +8193,12 @@
         <v>3.07</v>
       </c>
       <c r="H28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B29">
         <v>1.2</v>
@@ -4584,7 +8207,7 @@
         <v>1964726</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>1.1200000000000001</v>
@@ -4596,12 +8219,12 @@
         <v>7.19</v>
       </c>
       <c r="H29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B30">
         <v>3.8</v>
@@ -4610,7 +8233,7 @@
         <v>6196156</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E30">
         <v>3.53</v>
@@ -4622,12 +8245,12 @@
         <v>7.64</v>
       </c>
       <c r="H30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B31">
         <v>8.1</v>
@@ -4636,7 +8259,7 @@
         <v>12961683</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E31">
         <v>7.39</v>
@@ -4648,12 +8271,12 @@
         <v>9.68</v>
       </c>
       <c r="H31" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B32">
         <v>1.3</v>
@@ -4662,7 +8285,7 @@
         <v>1978379</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E32">
         <v>1.1299999999999999</v>
@@ -4674,12 +8297,12 @@
         <v>15.33</v>
       </c>
       <c r="H32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="B33">
         <v>8.4</v>
@@ -4688,7 +8311,7 @@
         <v>12549689</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E33">
         <v>7.15</v>
@@ -4700,12 +8323,12 @@
         <v>17.47</v>
       </c>
       <c r="H33" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B34">
         <v>2.5</v>
@@ -4714,7 +8337,7 @@
         <v>3617176</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E34">
         <v>2.06</v>
@@ -4726,12 +8349,12 @@
         <v>21.3</v>
       </c>
       <c r="H34" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -4740,7 +8363,7 @@
         <v>1435138</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E35">
         <v>0.82</v>
@@ -4752,12 +8375,12 @@
         <v>22.29</v>
       </c>
       <c r="H35" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B36">
         <v>2.9</v>
@@ -4766,7 +8389,7 @@
         <v>4053824</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E36">
         <v>2.31</v>
@@ -4778,12 +8401,12 @@
         <v>25.55</v>
       </c>
       <c r="H36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="B37">
         <v>2.4</v>
@@ -4792,7 +8415,7 @@
         <v>3207004</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E37">
         <v>1.83</v>
@@ -4804,12 +8427,12 @@
         <v>31.34</v>
       </c>
       <c r="H37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B38">
         <v>2.2999999999999998</v>
@@ -4818,7 +8441,7 @@
         <v>2939690</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E38">
         <v>1.67</v>
@@ -4830,12 +8453,12 @@
         <v>37.32</v>
       </c>
       <c r="H38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B39">
         <v>1.1000000000000001</v>
@@ -4844,7 +8467,7 @@
         <v>1395722</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E39">
         <v>0.8</v>
@@ -4856,12 +8479,12 @@
         <v>38.32</v>
       </c>
       <c r="H39" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B40">
         <v>0.1426</v>
@@ -4870,7 +8493,7 @@
         <v>172952</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E40">
         <v>0.1</v>
@@ -4882,12 +8505,12 @@
         <v>44.71</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B41">
         <v>3.9</v>
@@ -4896,7 +8519,7 @@
         <v>4526154</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E41">
         <v>2.58</v>
@@ -4908,12 +8531,12 @@
         <v>51.23</v>
       </c>
       <c r="H41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="B42">
         <v>2.8</v>
@@ -4922,7 +8545,7 @@
         <v>3067732</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E42">
         <v>1.75</v>
@@ -4934,12 +8557,12 @@
         <v>60.19</v>
       </c>
       <c r="H42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B43">
         <v>4.3</v>
@@ -4948,7 +8571,7 @@
         <v>4573749</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E43">
         <v>2.61</v>
@@ -4960,12 +8583,12 @@
         <v>65</v>
       </c>
       <c r="H43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B44">
         <v>1.1000000000000001</v>
@@ -4974,7 +8597,7 @@
         <v>1095962</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E44">
         <v>0.62</v>
@@ -4986,12 +8609,12 @@
         <v>76.150000000000006</v>
       </c>
       <c r="H44" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -5000,7 +8623,7 @@
         <v>1770071</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E45">
         <v>1.01</v>
@@ -5012,12 +8635,12 @@
         <v>98.31</v>
       </c>
       <c r="H45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B46">
         <v>2.6</v>
@@ -5026,7 +8649,7 @@
         <v>2114371</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E46">
         <v>1.2</v>
@@ -5038,12 +8661,12 @@
         <v>115.82</v>
       </c>
       <c r="H46" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B47">
         <v>0.85209999999999997</v>
@@ -5052,7 +8675,7 @@
         <v>647464</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E47">
         <v>0.37</v>
@@ -5064,12 +8687,12 @@
         <v>130.97999999999999</v>
       </c>
       <c r="H47" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B48">
         <v>1.3</v>
@@ -5078,7 +8701,7 @@
         <v>919318</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E48">
         <v>0.52</v>
@@ -5090,12 +8713,12 @@
         <v>148.18</v>
       </c>
       <c r="H48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="B49">
         <v>6.8599999999999994E-2</v>
@@ -5104,7 +8727,7 @@
         <v>43914</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E49">
         <v>0.03</v>
@@ -5116,12 +8739,12 @@
         <v>174.17</v>
       </c>
       <c r="H49" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="B50">
         <v>1.1000000000000001</v>
@@ -5130,7 +8753,7 @@
         <v>678972</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E50">
         <v>0.39</v>
@@ -5142,12 +8765,12 @@
         <v>184.34</v>
       </c>
       <c r="H50" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="B51">
         <v>8.3299999999999999E-2</v>
@@ -5156,7 +8779,7 @@
         <v>49796</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E51">
         <v>0.03</v>
@@ -5168,12 +8791,12 @@
         <v>193.59</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="B52">
         <v>1.8</v>
@@ -5182,7 +8805,7 @@
         <v>783926</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E52">
         <v>0.45</v>
@@ -5194,12 +8817,12 @@
         <v>302.99</v>
       </c>
       <c r="H52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="B53">
         <v>3.3</v>
@@ -5208,7 +8831,7 @@
         <v>1132812</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E53">
         <v>0.65</v>
@@ -5220,7 +8843,7 @@
         <v>411.27</v>
       </c>
       <c r="H53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -5234,7 +8857,7 @@
         <v>584057</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E54">
         <v>0.33</v>
@@ -5246,12 +8869,12 @@
         <v>591.14</v>
       </c>
       <c r="H54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="B55">
         <v>3.7</v>
@@ -5260,7 +8883,7 @@
         <v>733406</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E55">
         <v>0.42</v>
@@ -5272,24 +8895,7 @@
         <v>785.43</v>
       </c>
       <c r="H55" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56">
-        <v>1031890</v>
-      </c>
-      <c r="D56" t="s">
-        <v>16</v>
-      </c>
-      <c r="E56">
-        <v>0.59</v>
-      </c>
-      <c r="H56" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -5305,18 +8911,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75A8947F-EC0B-6749-ADE4-54E0B9EA54E4}">
   <dimension ref="F54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="74" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="X97" sqref="X97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="54" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F54" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>